--- a/data/save_data/2024/kittredge_andrew.xlsx
+++ b/data/save_data/2024/kittredge_andrew.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,16 @@
           <t>IP</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>I0</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -497,6 +507,12 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
+      <c r="I2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -525,6 +541,12 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
+      <c r="I3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -553,6 +575,12 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -580,6 +608,12 @@
       </c>
       <c r="H5" t="n">
         <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -609,6 +643,12 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +677,12 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
+      <c r="I7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -665,6 +711,12 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,6 +745,12 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -720,6 +778,12 @@
       </c>
       <c r="H10" t="n">
         <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -749,6 +813,12 @@
       <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -777,6 +847,12 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
+      <c r="I12" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -805,6 +881,12 @@
       <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -833,6 +915,12 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -861,6 +949,12 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
+      <c r="I15" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -889,6 +983,12 @@
       <c r="H16" t="n">
         <v>1</v>
       </c>
+      <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -917,6 +1017,12 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
+      <c r="I17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -945,6 +1051,12 @@
       <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -973,6 +1085,12 @@
       <c r="H19" t="n">
         <v>1</v>
       </c>
+      <c r="I19" t="n">
+        <v>7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1001,6 +1119,12 @@
       <c r="H20" t="n">
         <v>1</v>
       </c>
+      <c r="I20" t="n">
+        <v>7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1029,6 +1153,12 @@
       <c r="H21" t="n">
         <v>1</v>
       </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1057,6 +1187,12 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
+      <c r="I22" t="n">
+        <v>6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1085,6 +1221,12 @@
       <c r="H23" t="n">
         <v>1</v>
       </c>
+      <c r="I23" t="n">
+        <v>8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1113,6 +1255,12 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1141,6 +1289,12 @@
       <c r="H25" t="n">
         <v>1</v>
       </c>
+      <c r="I25" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1169,6 +1323,12 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
+      <c r="I26" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1197,6 +1357,12 @@
       <c r="H27" t="n">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1225,6 +1391,12 @@
       <c r="H28" t="n">
         <v>1</v>
       </c>
+      <c r="I28" t="n">
+        <v>7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1253,6 +1425,12 @@
       <c r="H29" t="n">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1281,6 +1459,12 @@
       <c r="H30" t="n">
         <v>1</v>
       </c>
+      <c r="I30" t="n">
+        <v>9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1309,6 +1493,12 @@
       <c r="H31" t="n">
         <v>1</v>
       </c>
+      <c r="I31" t="n">
+        <v>8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1337,6 +1527,12 @@
       <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="I32" t="n">
+        <v>7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1365,6 +1561,12 @@
       <c r="H33" t="n">
         <v>1</v>
       </c>
+      <c r="I33" t="n">
+        <v>9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1393,6 +1595,12 @@
       <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="I34" t="n">
+        <v>7</v>
+      </c>
+      <c r="J34" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1421,6 +1629,12 @@
       <c r="H35" t="n">
         <v>1</v>
       </c>
+      <c r="I35" t="n">
+        <v>8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1449,6 +1663,12 @@
       <c r="H36" t="n">
         <v>2</v>
       </c>
+      <c r="I36" t="n">
+        <v>9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1477,6 +1697,12 @@
       <c r="H37" t="n">
         <v>1</v>
       </c>
+      <c r="I37" t="n">
+        <v>7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1505,6 +1731,12 @@
       <c r="H38" t="n">
         <v>1</v>
       </c>
+      <c r="I38" t="n">
+        <v>8</v>
+      </c>
+      <c r="J38" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1533,6 +1765,12 @@
       <c r="H39" t="n">
         <v>1</v>
       </c>
+      <c r="I39" t="n">
+        <v>8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1561,6 +1799,12 @@
       <c r="H40" t="n">
         <v>1</v>
       </c>
+      <c r="I40" t="n">
+        <v>8</v>
+      </c>
+      <c r="J40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1589,6 +1833,12 @@
       <c r="H41" t="n">
         <v>2</v>
       </c>
+      <c r="I41" t="n">
+        <v>6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1617,6 +1867,12 @@
       <c r="H42" t="n">
         <v>2</v>
       </c>
+      <c r="I42" t="n">
+        <v>11</v>
+      </c>
+      <c r="J42" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1645,6 +1901,12 @@
       <c r="H43" t="n">
         <v>1</v>
       </c>
+      <c r="I43" t="n">
+        <v>8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1673,6 +1935,12 @@
       <c r="H44" t="n">
         <v>1</v>
       </c>
+      <c r="I44" t="n">
+        <v>9</v>
+      </c>
+      <c r="J44" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1701,6 +1969,12 @@
       <c r="H45" t="n">
         <v>1</v>
       </c>
+      <c r="I45" t="n">
+        <v>8</v>
+      </c>
+      <c r="J45" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1729,6 +2003,12 @@
       <c r="H46" t="n">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>7</v>
+      </c>
+      <c r="J46" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1757,6 +2037,12 @@
       <c r="H47" t="n">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>7</v>
+      </c>
+      <c r="J47" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1785,6 +2071,12 @@
       <c r="H48" t="n">
         <v>1</v>
       </c>
+      <c r="I48" t="n">
+        <v>8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1813,6 +2105,12 @@
       <c r="H49" t="n">
         <v>2</v>
       </c>
+      <c r="I49" t="n">
+        <v>6</v>
+      </c>
+      <c r="J49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1841,6 +2139,12 @@
       <c r="H50" t="n">
         <v>1</v>
       </c>
+      <c r="I50" t="n">
+        <v>8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1869,6 +2173,12 @@
       <c r="H51" t="n">
         <v>1</v>
       </c>
+      <c r="I51" t="n">
+        <v>8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1897,6 +2207,12 @@
       <c r="H52" t="n">
         <v>1</v>
       </c>
+      <c r="I52" t="n">
+        <v>7</v>
+      </c>
+      <c r="J52" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1925,6 +2241,12 @@
       <c r="H53" t="n">
         <v>1</v>
       </c>
+      <c r="I53" t="n">
+        <v>7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1953,6 +2275,12 @@
       <c r="H54" t="n">
         <v>2</v>
       </c>
+      <c r="I54" t="n">
+        <v>7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1981,6 +2309,12 @@
       <c r="H55" t="n">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2009,6 +2343,12 @@
       <c r="H56" t="n">
         <v>1</v>
       </c>
+      <c r="I56" t="n">
+        <v>7</v>
+      </c>
+      <c r="J56" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2037,6 +2377,12 @@
       <c r="H57" t="n">
         <v>1</v>
       </c>
+      <c r="I57" t="n">
+        <v>8</v>
+      </c>
+      <c r="J57" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2065,6 +2411,12 @@
       <c r="H58" t="n">
         <v>1</v>
       </c>
+      <c r="I58" t="n">
+        <v>8</v>
+      </c>
+      <c r="J58" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2093,6 +2445,12 @@
       <c r="H59" t="n">
         <v>1</v>
       </c>
+      <c r="I59" t="n">
+        <v>8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2121,6 +2479,12 @@
       <c r="H60" t="n">
         <v>1</v>
       </c>
+      <c r="I60" t="n">
+        <v>7</v>
+      </c>
+      <c r="J60" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2149,6 +2513,12 @@
       <c r="H61" t="n">
         <v>1</v>
       </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2177,6 +2547,12 @@
       <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="I62" t="n">
+        <v>6</v>
+      </c>
+      <c r="J62" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2205,6 +2581,12 @@
       <c r="H63" t="n">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2233,6 +2615,12 @@
       <c r="H64" t="n">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>8</v>
+      </c>
+      <c r="J64" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2261,6 +2649,12 @@
       <c r="H65" t="n">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>8</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2289,6 +2683,12 @@
       <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="I66" t="n">
+        <v>7</v>
+      </c>
+      <c r="J66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2317,6 +2717,12 @@
       <c r="H67" t="n">
         <v>1</v>
       </c>
+      <c r="I67" t="n">
+        <v>8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2345,6 +2751,12 @@
       <c r="H68" t="n">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>7</v>
+      </c>
+      <c r="J68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2373,6 +2785,12 @@
       <c r="H69" t="n">
         <v>1</v>
       </c>
+      <c r="I69" t="n">
+        <v>8</v>
+      </c>
+      <c r="J69" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2401,6 +2819,12 @@
       <c r="H70" t="n">
         <v>1</v>
       </c>
+      <c r="I70" t="n">
+        <v>9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2429,6 +2853,12 @@
       <c r="H71" t="n">
         <v>2</v>
       </c>
+      <c r="I71" t="n">
+        <v>6</v>
+      </c>
+      <c r="J71" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2457,6 +2887,12 @@
       <c r="H72" t="n">
         <v>1</v>
       </c>
+      <c r="I72" t="n">
+        <v>8</v>
+      </c>
+      <c r="J72" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2485,6 +2921,12 @@
       <c r="H73" t="n">
         <v>1</v>
       </c>
+      <c r="I73" t="n">
+        <v>8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2513,6 +2955,12 @@
       <c r="H74" t="n">
         <v>1</v>
       </c>
+      <c r="I74" t="n">
+        <v>6</v>
+      </c>
+      <c r="J74" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2541,6 +2989,12 @@
       <c r="H75" t="n">
         <v>1</v>
       </c>
+      <c r="I75" t="n">
+        <v>8</v>
+      </c>
+      <c r="J75" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2569,6 +3023,12 @@
       <c r="H76" t="n">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>7</v>
+      </c>
+      <c r="J76" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2597,6 +3057,12 @@
       <c r="H77" t="n">
         <v>1</v>
       </c>
+      <c r="I77" t="n">
+        <v>7</v>
+      </c>
+      <c r="J77" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2625,6 +3091,12 @@
       <c r="H78" t="n">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2653,6 +3125,12 @@
       <c r="H79" t="n">
         <v>1</v>
       </c>
+      <c r="I79" t="n">
+        <v>7</v>
+      </c>
+      <c r="J79" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2681,6 +3159,12 @@
       <c r="H80" t="n">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>8</v>
+      </c>
+      <c r="J80" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2709,6 +3193,12 @@
       <c r="H81" t="n">
         <v>1</v>
       </c>
+      <c r="I81" t="n">
+        <v>8</v>
+      </c>
+      <c r="J81" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2737,6 +3227,12 @@
       <c r="H82" t="n">
         <v>1</v>
       </c>
+      <c r="I82" t="n">
+        <v>9</v>
+      </c>
+      <c r="J82" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2765,6 +3261,12 @@
       <c r="H83" t="n">
         <v>1</v>
       </c>
+      <c r="I83" t="n">
+        <v>4</v>
+      </c>
+      <c r="J83" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2792,6 +3294,12 @@
       </c>
       <c r="H84" t="n">
         <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>4</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/save_data/2024/kittredge_andrew.xlsx
+++ b/data/save_data/2024/kittredge_andrew.xlsx
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>5</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G9" t="n">
         <v>7</v>
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>8</v>
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1485,7 +1485,7 @@
         <v>-3</v>
       </c>
       <c r="F31" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -1553,7 +1553,7 @@
         <v>-2</v>
       </c>
       <c r="F33" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
@@ -1587,7 +1587,7 @@
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
         <v>4</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
         <v>6</v>
@@ -1791,7 +1791,7 @@
         <v>3</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1825,7 +1825,7 @@
         <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1961,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
         <v>7</v>
@@ -1995,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G46" t="n">
         <v>7</v>
@@ -2165,7 +2165,7 @@
         <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
         <v>4</v>
@@ -2199,7 +2199,7 @@
         <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
         <v>5</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G53" t="n">
         <v>4</v>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2539,7 +2539,7 @@
         <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>8</v>
@@ -2675,7 +2675,7 @@
         <v>-1</v>
       </c>
       <c r="F66" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -2879,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
         <v>4</v>
@@ -2947,7 +2947,7 @@
         <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
         <v>4</v>
@@ -3015,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G76" t="n">
         <v>10</v>
@@ -3083,7 +3083,7 @@
         <v>-1</v>
       </c>
       <c r="F78" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G78" t="n">
         <v>5</v>

--- a/data/save_data/2024/kittredge_andrew.xlsx
+++ b/data/save_data/2024/kittredge_andrew.xlsx
@@ -502,7 +502,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -536,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>-1</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1046,7 +1046,7 @@
         <v>-1</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>-3</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1250,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1352,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1488,7 +1488,7 @@
         <v>-5</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1522,7 +1522,7 @@
         <v>-1</v>
       </c>
       <c r="G32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>2</v>
@@ -1556,7 +1556,7 @@
         <v>-3</v>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1590,7 +1590,7 @@
         <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>2</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>2</v>
@@ -1692,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
@@ -1896,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -1964,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -1998,7 +1998,7 @@
         <v>-2</v>
       </c>
       <c r="G46" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -2066,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -2168,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -2202,7 +2202,7 @@
         <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>-1</v>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -2270,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>2</v>
@@ -2304,7 +2304,7 @@
         <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -2372,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="G57" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -2406,7 +2406,7 @@
         <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
@@ -2440,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -2474,7 +2474,7 @@
         <v>-2</v>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -2508,7 +2508,7 @@
         <v>-1</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>2</v>
@@ -2576,7 +2576,7 @@
         <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -2610,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -2644,7 +2644,7 @@
         <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>2</v>
@@ -2712,7 +2712,7 @@
         <v>-2</v>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>1</v>
@@ -2746,7 +2746,7 @@
         <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
@@ -2780,7 +2780,7 @@
         <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
@@ -2814,7 +2814,7 @@
         <v>-1</v>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
@@ -2848,7 +2848,7 @@
         <v>3</v>
       </c>
       <c r="G71" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
         <v>2</v>
@@ -2882,7 +2882,7 @@
         <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>1</v>
@@ -2916,7 +2916,7 @@
         <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
@@ -2950,7 +2950,7 @@
         <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
@@ -2984,7 +2984,7 @@
         <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -3018,7 +3018,7 @@
         <v>4</v>
       </c>
       <c r="G76" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
@@ -3052,7 +3052,7 @@
         <v>-1</v>
       </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -3086,7 +3086,7 @@
         <v>-3</v>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>1</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>1</v>
@@ -3188,7 +3188,7 @@
         <v>6</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
@@ -3222,7 +3222,7 @@
         <v>-3</v>
       </c>
       <c r="G82" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>1</v>
@@ -3256,7 +3256,7 @@
         <v>-3</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>1</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>

--- a/data/save_data/2024/kittredge_andrew.xlsx
+++ b/data/save_data/2024/kittredge_andrew.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dS0</t>
+          <t>dSF</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dSF</t>
+          <t>d2S</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -533,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -666,10 +666,10 @@
         <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -734,7 +734,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F9" t="n">
         <v>-1</v>
@@ -768,10 +768,10 @@
         <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -941,7 +941,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -972,10 +972,10 @@
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>-1</v>
       </c>
       <c r="F18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1176,10 +1176,10 @@
         <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="F22" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1247,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>11</v>
       </c>
       <c r="E31" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F31" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>-1</v>
       </c>
       <c r="F32" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -1550,10 +1550,10 @@
         <v>14</v>
       </c>
       <c r="E33" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F33" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -1584,10 +1584,10 @@
         <v>17</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1652,7 +1652,7 @@
         <v>17</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1757,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>11</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1822,10 +1822,10 @@
         <v>18</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1958,10 +1958,10 @@
         <v>14</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -1992,10 +1992,10 @@
         <v>22</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F46" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2063,7 +2063,7 @@
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2097,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2162,10 +2162,10 @@
         <v>19</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2196,10 +2196,10 @@
         <v>25</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>19</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F53" t="n">
         <v>-1</v>
@@ -2267,7 +2267,7 @@
         <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2301,7 +2301,7 @@
         <v>3</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>4</v>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>3</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2437,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2468,10 +2468,10 @@
         <v>18</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F60" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F61" t="n">
         <v>-1</v>
@@ -2536,10 +2536,10 @@
         <v>27</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -2573,7 +2573,7 @@
         <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2607,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2641,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2672,10 +2672,10 @@
         <v>16</v>
       </c>
       <c r="E66" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         <v>-2</v>
       </c>
       <c r="F67" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2743,7 +2743,7 @@
         <v>3</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2777,7 +2777,7 @@
         <v>3</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -2811,7 +2811,7 @@
         <v>-1</v>
       </c>
       <c r="F70" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2845,7 +2845,7 @@
         <v>3</v>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -2876,10 +2876,10 @@
         <v>13</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2913,7 +2913,7 @@
         <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2944,10 +2944,10 @@
         <v>18</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3012,10 +3012,10 @@
         <v>20</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -3049,7 +3049,7 @@
         <v>-1</v>
       </c>
       <c r="F77" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -3080,10 +3080,10 @@
         <v>19</v>
       </c>
       <c r="E78" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F78" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3117,7 +3117,7 @@
         <v>6</v>
       </c>
       <c r="F79" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>6</v>
       </c>
       <c r="F81" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3219,7 +3219,7 @@
         <v>-3</v>
       </c>
       <c r="F82" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3253,7 +3253,7 @@
         <v>-3</v>
       </c>
       <c r="F83" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
